--- a/medicine/Enfance/La_Liseuse/La_Liseuse.xlsx
+++ b/medicine/Enfance/La_Liseuse/La_Liseuse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Liseuse ou La Jeune Fille lisant est un tableau peint par Jean-Honoré Fragonard vers 1770[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Liseuse ou La Jeune Fille lisant est un tableau peint par Jean-Honoré Fragonard vers 1770.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Précisions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La technique utilisée est l'huile sur toile, remarquable par la variété des touches, qui en fait un bon exemple du jeu de pinceau rapide et vigoureux développé par Fragonard et parfois qualifié d'« escrime » par ses contemporains[2]. Ses dimensions sont de 81,1 cm sur 64,8 centimètres. Le tableau est conservé à la National Gallery of Art, à Washington. Il a été donné au musée en 1961 par Mme Mellon Bruce, en mémoire de son père, Andrew W. Mellon. Auparavant, ce tableau avait appartenu au docteur Tuffier.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La technique utilisée est l'huile sur toile, remarquable par la variété des touches, qui en fait un bon exemple du jeu de pinceau rapide et vigoureux développé par Fragonard et parfois qualifié d'« escrime » par ses contemporains. Ses dimensions sont de 81,1 cm sur 64,8 centimètres. Le tableau est conservé à la National Gallery of Art, à Washington. Il a été donné au musée en 1961 par Mme Mellon Bruce, en mémoire de son père, Andrew W. Mellon. Auparavant, ce tableau avait appartenu au docteur Tuffier.
 La toile représente une jeune fille avec un livre à la main droite, l'autre accoudée sur un fauteuil et perdue dans sa lecture. Comparé aux autres tableaux de Fragonard, celui-ci est plus calme. C'est une scène d'érudition d'une jeune femme. On pourrait, à propos de ce tableau, parler de portrait même si elle ne nous regarde pas. Il faut noter que la posture de sa main et de son dos (elle se tient très droite malgré le gros coussin) montre qu'elle a eu une éducation en matière de bienséance.
 </t>
         </is>
